--- a/CH-034 Customer Return Cycle.xlsx
+++ b/CH-034 Customer Return Cycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373F4EF-3E49-407F-9266-3134936DF3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A32F27-BCC3-41D9-812C-270344FFA335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Avg Return Cycle</t>
+  </si>
+  <si>
+    <t>Kind of an odd metric, but okay.</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2100,6 +2103,9 @@
       <c r="S37">
         <v>3</v>
       </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L38">
